--- a/data/trans_orig/P19F$mañana-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P19F$mañana-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>90150</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>76333</v>
+        <v>75147</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>103770</v>
+        <v>104713</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4512946566210142</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3821231307744211</v>
+        <v>0.3761892883062873</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5194765711456401</v>
+        <v>0.5241975460021063</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>60</v>
@@ -762,19 +762,19 @@
         <v>64187</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>52402</v>
+        <v>53243</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>75221</v>
+        <v>75655</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4982111805897232</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4067372926214343</v>
+        <v>0.4132700119098651</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5838632717721147</v>
+        <v>0.5872271517745373</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>146</v>
@@ -783,19 +783,19 @@
         <v>154337</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>137105</v>
+        <v>134983</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>172204</v>
+        <v>172677</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4696896006475892</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4172489705513288</v>
+        <v>0.4107897158493662</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5240652085095697</v>
+        <v>0.5255045473097774</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>152504</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>139528</v>
+        <v>138674</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>164715</v>
+        <v>163204</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7634377873199356</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6984828592418024</v>
+        <v>0.6942057129296846</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8245703687243195</v>
+        <v>0.8170041325658275</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>91</v>
@@ -833,19 +833,19 @@
         <v>94656</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>83692</v>
+        <v>83896</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>104319</v>
+        <v>104071</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7347157213490193</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.649614095121504</v>
+        <v>0.6511923393329974</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8097184399637899</v>
+        <v>0.807792988505139</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>233</v>
@@ -854,19 +854,19 @@
         <v>247160</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>231294</v>
+        <v>230278</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>262891</v>
+        <v>263009</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7521764927659108</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.703891279047725</v>
+        <v>0.7007994676236168</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8000514653364442</v>
+        <v>0.8004085775835535</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>57556</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>44430</v>
+        <v>45379</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>72241</v>
+        <v>71479</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2881283970903666</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.222415539885365</v>
+        <v>0.2271684589937441</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3616418259982831</v>
+        <v>0.3578244780758327</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>44</v>
@@ -904,19 +904,19 @@
         <v>44820</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>35087</v>
+        <v>34202</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>57323</v>
+        <v>55669</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3478870987393186</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2723459377958253</v>
+        <v>0.2654761286266266</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4449404479754929</v>
+        <v>0.4320953371167157</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>96</v>
@@ -925,19 +925,19 @@
         <v>102376</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>85908</v>
+        <v>85051</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>119470</v>
+        <v>121422</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3115584784123848</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2614407058773408</v>
+        <v>0.2588338773074895</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3635819570995668</v>
+        <v>0.3695206916711763</v>
       </c>
     </row>
     <row r="7">
@@ -958,19 +958,19 @@
         <v>70959</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>57189</v>
+        <v>57429</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>83371</v>
+        <v>84828</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3960567130794941</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3191992946391883</v>
+        <v>0.3205426937359355</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4653358286649187</v>
+        <v>0.4734707943161147</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>75</v>
@@ -979,19 +979,19 @@
         <v>81955</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>69054</v>
+        <v>66589</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>96814</v>
+        <v>94628</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4566814932460301</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3847931681858809</v>
+        <v>0.371058780864287</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5394839558078599</v>
+        <v>0.5272993832831179</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>142</v>
@@ -1000,19 +1000,19 @@
         <v>152913</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>134947</v>
+        <v>133775</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>173207</v>
+        <v>171749</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4263939584381587</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3762943306846273</v>
+        <v>0.3730283609714158</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4829816488918027</v>
+        <v>0.4789171204648318</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>135551</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>122372</v>
+        <v>122871</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>147489</v>
+        <v>146379</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7565790752334994</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.683018141682436</v>
+        <v>0.685806117409431</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8232131213549506</v>
+        <v>0.8170172567052963</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>127</v>
@@ -1050,19 +1050,19 @@
         <v>133060</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>119930</v>
+        <v>119063</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>145096</v>
+        <v>144466</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7414608952281823</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6682916623803454</v>
+        <v>0.6634649603852483</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8085256129564375</v>
+        <v>0.8050150759479892</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>257</v>
@@ -1071,19 +1071,19 @@
         <v>268611</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>250224</v>
+        <v>250035</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>283403</v>
+        <v>285499</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.749013786997602</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.697741900109152</v>
+        <v>0.6972141870763785</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7902600975759783</v>
+        <v>0.7961041361376645</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>65555</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>53004</v>
+        <v>53565</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>79180</v>
+        <v>79086</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3658974163967714</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2958415187568421</v>
+        <v>0.2989761724435348</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4419418482682088</v>
+        <v>0.4414184120645036</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>66</v>
@@ -1121,19 +1121,19 @@
         <v>69430</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>56739</v>
+        <v>56293</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>83452</v>
+        <v>83678</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3868867721336334</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3161709213536154</v>
+        <v>0.313685632587908</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4650252457659398</v>
+        <v>0.466286437652648</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>128</v>
@@ -1142,19 +1142,19 @@
         <v>134985</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>118851</v>
+        <v>117786</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>154607</v>
+        <v>154523</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.376400699594835</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3314112292075708</v>
+        <v>0.3284435356209165</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4311153529534927</v>
+        <v>0.4308831608006787</v>
       </c>
     </row>
     <row r="10">
@@ -1175,19 +1175,19 @@
         <v>114944</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>99771</v>
+        <v>98698</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>132044</v>
+        <v>131766</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4074751947526444</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3536885170602443</v>
+        <v>0.3498840592139157</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4680948847761064</v>
+        <v>0.4671079910362922</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -1196,19 +1196,19 @@
         <v>39845</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31019</v>
+        <v>30804</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48063</v>
+        <v>48406</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5343592321100198</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.415993053850053</v>
+        <v>0.4131065909528336</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6445719646064113</v>
+        <v>0.6491675618154845</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>149</v>
@@ -1217,19 +1217,19 @@
         <v>154789</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>135479</v>
+        <v>136624</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>173529</v>
+        <v>171610</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4340029881023175</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3798613645936719</v>
+        <v>0.3830727642967195</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.486548443075722</v>
+        <v>0.4811674033929275</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>221065</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>206766</v>
+        <v>206103</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>234501</v>
+        <v>235046</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7836742595904372</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7329836401109634</v>
+        <v>0.7306337282568101</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8313030844415925</v>
+        <v>0.8332352147387597</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>62</v>
@@ -1267,19 +1267,19 @@
         <v>65348</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>58047</v>
+        <v>58393</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>69619</v>
+        <v>70433</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8763735486845584</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.77846200707837</v>
+        <v>0.783100023333045</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9336604382848777</v>
+        <v>0.9445709764675816</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>277</v>
@@ -1288,19 +1288,19 @@
         <v>286413</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>269288</v>
+        <v>270199</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>299904</v>
+        <v>300940</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8030550078387315</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7550385879105932</v>
+        <v>0.7575945707144596</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8408819753087243</v>
+        <v>0.843788110356553</v>
       </c>
     </row>
     <row r="12">
@@ -1317,19 +1317,19 @@
         <v>86519</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>71605</v>
+        <v>69990</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>102358</v>
+        <v>102307</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3067100031026627</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2538407158390639</v>
+        <v>0.2481129009575636</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3628571414539321</v>
+        <v>0.362678632493405</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>18</v>
@@ -1338,19 +1338,19 @@
         <v>17979</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11537</v>
+        <v>11440</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26394</v>
+        <v>26641</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2411112384754883</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1547227669659957</v>
+        <v>0.1534231759369134</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3539666412898762</v>
+        <v>0.3572868202332199</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>102</v>
@@ -1359,19 +1359,19 @@
         <v>104498</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>89313</v>
+        <v>88157</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>121525</v>
+        <v>122072</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2929951930424958</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2504182433506192</v>
+        <v>0.2471776372245653</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3407358417372158</v>
+        <v>0.3422713798989743</v>
       </c>
     </row>
     <row r="13">
@@ -1392,19 +1392,19 @@
         <v>245666</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>222685</v>
+        <v>222479</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>270516</v>
+        <v>269596</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3945258321956381</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3576195129671904</v>
+        <v>0.357288386388511</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4344326018544098</v>
+        <v>0.4329552576424662</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>192</v>
@@ -1413,19 +1413,19 @@
         <v>202566</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>180137</v>
+        <v>181063</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>224610</v>
+        <v>221694</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.479218043196822</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4261562464254555</v>
+        <v>0.4283484881703093</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5313676660600462</v>
+        <v>0.5244710080906425</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>432</v>
@@ -1434,19 +1434,19 @@
         <v>448232</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>418677</v>
+        <v>416326</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>480565</v>
+        <v>480478</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4287710222893822</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4004995110596471</v>
+        <v>0.3982504248129197</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4596998955265486</v>
+        <v>0.4596173376589183</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>479054</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>457096</v>
+        <v>457357</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>501201</v>
+        <v>499221</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7693331069393619</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.734070561328054</v>
+        <v>0.7344901594253472</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8049005773789535</v>
+        <v>0.801720776273951</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>328</v>
@@ -1484,19 +1484,19 @@
         <v>341996</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>325094</v>
+        <v>324451</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>358840</v>
+        <v>358340</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.809072881968812</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7690867999491146</v>
+        <v>0.767566337280998</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8489223399254862</v>
+        <v>0.8477379708179424</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>788</v>
@@ -1505,19 +1505,19 @@
         <v>821050</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>794559</v>
+        <v>793063</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>848486</v>
+        <v>846497</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7854018355045793</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.760061144616641</v>
+        <v>0.7586304114763623</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8116467642744974</v>
+        <v>0.8097446386457912</v>
       </c>
     </row>
     <row r="15">
@@ -1534,19 +1534,19 @@
         <v>189360</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>167720</v>
+        <v>166699</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>213346</v>
+        <v>213016</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3041012616052922</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2693494446439852</v>
+        <v>0.2677092442295188</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3426211245626957</v>
+        <v>0.3420922856230621</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>134</v>
@@ -1555,19 +1555,19 @@
         <v>137270</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>117363</v>
+        <v>118030</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>156683</v>
+        <v>157700</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3247439549905927</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2776506437099183</v>
+        <v>0.2792281309892045</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3706714540264729</v>
+        <v>0.3730773785750985</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>312</v>
@@ -1576,19 +1576,19 @@
         <v>326630</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>297773</v>
+        <v>295897</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>357004</v>
+        <v>360391</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3124481089796819</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2848442990292191</v>
+        <v>0.2830495704910405</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3415034495151798</v>
+        <v>0.3447435889551227</v>
       </c>
     </row>
     <row r="16">
@@ -1609,19 +1609,19 @@
         <v>137324</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>119370</v>
+        <v>119484</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>154734</v>
+        <v>154727</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4074567611103772</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3541854993459185</v>
+        <v>0.354523142306823</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4591139655418381</v>
+        <v>0.4590919424915784</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>158</v>
@@ -1630,19 +1630,19 @@
         <v>166455</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>145112</v>
+        <v>146354</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>186384</v>
+        <v>186288</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4111470829560597</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3584285446100364</v>
+        <v>0.36149635384023</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.460370478684935</v>
+        <v>0.4601339419305449</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>290</v>
@@ -1651,19 +1651,19 @@
         <v>303780</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>278182</v>
+        <v>274320</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>331655</v>
+        <v>332249</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4094706182480058</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3749663647920447</v>
+        <v>0.3697609747899329</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4470440929464768</v>
+        <v>0.4478447197667527</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>269931</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>254142</v>
+        <v>253417</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>282012</v>
+        <v>284419</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8009168712762063</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.754066640036086</v>
+        <v>0.7519171912791396</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8367626267285811</v>
+        <v>0.8439033655453917</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>324</v>
@@ -1701,19 +1701,19 @@
         <v>336839</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>322021</v>
+        <v>320703</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>351999</v>
+        <v>350051</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8319976878919081</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7953975128056364</v>
+        <v>0.792139940635175</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8694434287986642</v>
+        <v>0.8646312082010046</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>583</v>
@@ -1722,19 +1722,19 @@
         <v>606771</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>585542</v>
+        <v>583730</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>626331</v>
+        <v>626795</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8178780814368016</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7892624151429147</v>
+        <v>0.7868203538182689</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8442429374608613</v>
+        <v>0.8448687143459481</v>
       </c>
     </row>
     <row r="18">
@@ -1751,19 +1751,19 @@
         <v>96888</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>81851</v>
+        <v>81549</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>114134</v>
+        <v>114579</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2874767621030366</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2428601749846649</v>
+        <v>0.2419638189858927</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3386483016069324</v>
+        <v>0.3399702107617782</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>120</v>
@@ -1772,19 +1772,19 @@
         <v>124108</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>103769</v>
+        <v>105293</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>143598</v>
+        <v>143216</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3065475518397828</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2563111005673883</v>
+        <v>0.2600758859008787</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3546885488000592</v>
+        <v>0.3537448058950051</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>215</v>
@@ -1793,19 +1793,19 @@
         <v>220996</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>193051</v>
+        <v>197504</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>244121</v>
+        <v>247508</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2978839427332285</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2602166964388793</v>
+        <v>0.2662185055633713</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3290547079645021</v>
+        <v>0.3336200200915549</v>
       </c>
     </row>
     <row r="19">
@@ -1826,19 +1826,19 @@
         <v>67960</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>55903</v>
+        <v>55615</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>80855</v>
+        <v>80647</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4330475126823493</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3562166467458603</v>
+        <v>0.354385893388977</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5152167265690332</v>
+        <v>0.5138932678884681</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>207</v>
@@ -1847,19 +1847,19 @@
         <v>223252</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>200528</v>
+        <v>199967</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>245583</v>
+        <v>246987</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4230653594746537</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3800033767477154</v>
+        <v>0.3789397400153208</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4653831144095664</v>
+        <v>0.4680441194890481</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>271</v>
@@ -1868,19 +1868,19 @@
         <v>291211</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>266501</v>
+        <v>267175</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>317335</v>
+        <v>318540</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4253534944067277</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3892608035070161</v>
+        <v>0.3902453749103963</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4635105158536444</v>
+        <v>0.4652709227587681</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>124610</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>112297</v>
+        <v>113131</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>134275</v>
+        <v>133462</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7940295458208815</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7155651643904813</v>
+        <v>0.7208846668995411</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8556152297422039</v>
+        <v>0.8504308393414817</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>398</v>
@@ -1918,19 +1918,19 @@
         <v>431826</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>412975</v>
+        <v>412311</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>450039</v>
+        <v>449000</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8183174815568325</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7825947263149864</v>
+        <v>0.7813362877338572</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8528316321241621</v>
+        <v>0.8508630615717561</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>517</v>
@@ -1939,19 +1939,19 @@
         <v>556436</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>533436</v>
+        <v>533940</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>575901</v>
+        <v>576269</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8127501382162641</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7791555443444682</v>
+        <v>0.7798915186470061</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.841181066101391</v>
+        <v>0.8417188491257371</v>
       </c>
     </row>
     <row r="21">
@@ -1968,19 +1968,19 @@
         <v>50574</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>38583</v>
+        <v>38922</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>62824</v>
+        <v>62299</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3222617998133725</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.245852747603546</v>
+        <v>0.2480181288302389</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4003221258753233</v>
+        <v>0.396978086399021</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>153</v>
@@ -1989,19 +1989,19 @@
         <v>163746</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>141214</v>
+        <v>141315</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>187079</v>
+        <v>184773</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3103011019068495</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2676030378895974</v>
+        <v>0.2677933051005819</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.354518357878521</v>
+        <v>0.3501473050350906</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>202</v>
@@ -2010,19 +2010,19 @@
         <v>214320</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>192873</v>
+        <v>189629</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>243168</v>
+        <v>238472</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3130427639633686</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2817175241488586</v>
+        <v>0.2769793265255678</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3551797593118269</v>
+        <v>0.3483206914985887</v>
       </c>
     </row>
     <row r="22">
@@ -2043,19 +2043,19 @@
         <v>727003</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>685896</v>
+        <v>683970</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>768866</v>
+        <v>768884</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4089665354508332</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3858425377240608</v>
+        <v>0.384759305410849</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4325162297260692</v>
+        <v>0.4325263936084762</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>729</v>
@@ -2064,19 +2064,19 @@
         <v>778260</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>736000</v>
+        <v>738181</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>819913</v>
+        <v>822344</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4477607116619179</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4234470942986183</v>
+        <v>0.4247017768574822</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4717252673791154</v>
+        <v>0.4731240545660023</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1430</v>
@@ -2085,19 +2085,19 @@
         <v>1505262</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1445749</v>
+        <v>1447524</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1563454</v>
+        <v>1566356</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4281454561996096</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.411217987910177</v>
+        <v>0.4117227497613045</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.444697108610547</v>
+        <v>0.4455226184867767</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>1382714</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1345916</v>
+        <v>1348871</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1419282</v>
+        <v>1416380</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7778291772787821</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7571288782799053</v>
+        <v>0.7587910883797225</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.798399743591983</v>
+        <v>0.796767612203558</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1330</v>
@@ -2135,19 +2135,19 @@
         <v>1403727</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1367802</v>
+        <v>1369043</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1437030</v>
+        <v>1435543</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8076143012482596</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7869456425999809</v>
+        <v>0.787659732163151</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.826775101996116</v>
+        <v>0.8259194254345287</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2655</v>
@@ -2156,19 +2156,19 @@
         <v>2786441</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2733577</v>
+        <v>2738790</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2835265</v>
+        <v>2835703</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7925542362411081</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7775180654032835</v>
+        <v>0.7790006972235117</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8064415639042061</v>
+        <v>0.8065658789572089</v>
       </c>
     </row>
     <row r="24">
@@ -2185,19 +2185,19 @@
         <v>546452</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>510618</v>
+        <v>509553</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>588634</v>
+        <v>587389</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3073998811939347</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2872420674554675</v>
+        <v>0.2866430599624525</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3311288523535881</v>
+        <v>0.3304285501006167</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>535</v>
@@ -2206,19 +2206,19 @@
         <v>557351</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>518020</v>
+        <v>516880</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>598422</v>
+        <v>597767</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3206642369088275</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2980357121688156</v>
+        <v>0.2973798940818932</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3442939457432048</v>
+        <v>0.3439169930644622</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1055</v>
@@ -2227,19 +2227,19 @@
         <v>1103803</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1046329</v>
+        <v>1048338</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1160243</v>
+        <v>1158721</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3139574641067746</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2976100306157103</v>
+        <v>0.2981813043296992</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3300107541391281</v>
+        <v>0.32957792528896</v>
       </c>
     </row>
     <row r="25">
